--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value416.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value416.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.175038877494835</v>
+        <v>-1</v>
       </c>
       <c r="B1">
-        <v>1.874673305970689</v>
+        <v>3.526267290115356</v>
       </c>
       <c r="C1">
-        <v>2.961230922113196</v>
+        <v>1.857581853866577</v>
       </c>
       <c r="D1">
-        <v>2.245951164885945</v>
+        <v>1.444078683853149</v>
       </c>
       <c r="E1">
-        <v>0.5942042188511979</v>
+        <v>1.305597305297852</v>
       </c>
     </row>
   </sheetData>
